--- a/Scripts.xlsx
+++ b/Scripts.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scripts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,11 +24,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+  <si>
+    <t>Mountyzilla</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/23602-tout-mz/code/Tout_MZ.user.js</t>
+  </si>
+  <si>
+    <t>Poissotron</t>
+  </si>
+  <si>
+    <t>https://mz.mh.raistlin.fr/poissotron/js/poissotron.user.js</t>
+  </si>
+  <si>
+    <t>Trajet_canvas</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/23887-trajet-des-gowap-mkii/code/Trajet des gowap MkII.user.js</t>
+  </si>
+  <si>
+    <t>Capitan</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/23991-capitan/code/Capitan.user.js</t>
+  </si>
+  <si>
+    <t>Grattage</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/23993-grattagefd/code/GrattageFD.user.js</t>
+  </si>
+  <si>
+    <t>Messagerie</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/23992-messagerie/code/Messagerie.user.js</t>
+  </si>
+  <si>
+    <t>Telek</t>
+  </si>
+  <si>
+    <t>https://greasyfork.org/scripts/24709-mh-raistlin-présélection-télék/code/MH - Raistlin - Présélection Télék.user.js</t>
+  </si>
   <si>
     <t>[Mountyhall] Le Baroufleur</t>
   </si>
   <si>
+    <t>https://greasyfork.org/scripts/38749-mountyhall-le-baroufleur/code/[Mountyhall] Le Baroufleur.user.js</t>
+  </si>
+  <si>
     <t>MH - Dabihul - Assistant Mélanges Magiques</t>
   </si>
   <si>
@@ -83,6 +128,9 @@
     <t>https://greasyfork.org/scripts/21985-mh-marmotte-mz-no-css/code/MH - Marmotte - MZ no CSS.user.js</t>
   </si>
   <si>
+    <t>MH - Mr X - Actions spéciales</t>
+  </si>
+  <si>
     <t>https://greasyfork.org/scripts/21986-mh-mr-x-actions-speciales/code/MH - Mr X - Actions speciales.user.js</t>
   </si>
   <si>
@@ -104,16 +152,7 @@
     <t>https://greasyfork.org/scripts/370193-racourcis-r/code/Racourcis R'.user.js</t>
   </si>
   <si>
-    <t>Désactivés</t>
-  </si>
-  <si>
-    <t>Activés</t>
-  </si>
-  <si>
-    <t>https://greasyfork.org/scripts/38749-mountyhall-le-baroufleur/code/[Mountyhall] Le Baroufleur.user.js</t>
-  </si>
-  <si>
-    <t>MH - Mr X - Actions spéciales</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -129,17 +168,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,22 +200,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,173 +507,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="A7:A15"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C15" r:id="rId15"/>
+    <hyperlink ref="C16" r:id="rId16"/>
+    <hyperlink ref="C17" r:id="rId17"/>
+    <hyperlink ref="C18" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="C20" r:id="rId20"/>
+    <hyperlink ref="C21" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>